--- a/items.xlsx
+++ b/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathis/dev/bingo_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290D78EF-3DD7-2D4B-8BA7-2CC4DC1ED7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED08FA2-0557-BE44-A2A9-E1878F5B613A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{632C9EE1-9B8E-2E44-9846-A39915AF6375}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{632C9EE1-9B8E-2E44-9846-A39915AF6375}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,163 +36,481 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
-  <si>
-    <t>items_category_1</t>
-  </si>
-  <si>
-    <t>items_category_2</t>
-  </si>
-  <si>
-    <t>items_category_3</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>B13</t>
-  </si>
-  <si>
-    <t>B14</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>C18</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
+  <si>
+    <t>Trinken</t>
+  </si>
+  <si>
+    <t>Spiel und Sport</t>
+  </si>
+  <si>
+    <t>Kommunikation  / Connection</t>
+  </si>
+  <si>
+    <t>Verteile eine Runde Shots an mind. 4 Personen</t>
+  </si>
+  <si>
+    <t>Tanze mit Mathis auf dein Lieblingslied</t>
+  </si>
+  <si>
+    <t>Unterhalte dich mit einer Person, die mind. 3 Jahre Altersdifferenz zu dir hat</t>
+  </si>
+  <si>
+    <t>Trinke 2 Shots hintereinander</t>
+  </si>
+  <si>
+    <t>Tanze mit Leonie auf dein Lieblingslied</t>
+  </si>
+  <si>
+    <t>Versammle 5 Personen, die irgendetwas Rotes anhaben</t>
+  </si>
+  <si>
+    <t>Trinke ein Bier (oder eine Fassbrause) auf Ex</t>
+  </si>
+  <si>
+    <t>Mache einen Handstand oder Kopfstand</t>
+  </si>
+  <si>
+    <t>Unterhalte dich mit jemandem, der/die schon mal in Südamerika war</t>
+  </si>
+  <si>
+    <t>Stoße mit zwei Personen an, die du noch nicht kennst</t>
+  </si>
+  <si>
+    <t>Initiere ein (Trink-)Spiel (z.B. Flip Cup,  Limbotanzen, Wahrheit-oder-Pflicht, Tittyball, …) und spiele mind. 1 Runde mit</t>
+  </si>
+  <si>
+    <t>Unterhalte dich mit jemandem, der/die weiß, was Python ist</t>
+  </si>
+  <si>
+    <t>Lass dir von jemandem ein Getränk zubereiten</t>
+  </si>
+  <si>
+    <t>Spiele eine Runde Rage Cage</t>
+  </si>
+  <si>
+    <t>Versammle 3 Personen, die entweder ein Haustier oder ein Kind haben</t>
+  </si>
+  <si>
+    <t>Stoße mit mind. 3 Psycholog:innen an</t>
+  </si>
+  <si>
+    <t>Motiviere 3 andere Personen zum tanzen</t>
+  </si>
+  <si>
+    <t>Versammle 5 Personen, die lieber Aperol Spritz als Gin Tonic trinken</t>
+  </si>
+  <si>
+    <t>Spiele eine Runde mit Limbo-Tanzen</t>
+  </si>
+  <si>
+    <t>Versammle 3 Personen, die zwei verschiedene Sachen studiert/gelernt haben</t>
+  </si>
+  <si>
+    <t>Trinke einen Shot mit einer/einem Lehrer:in</t>
+  </si>
+  <si>
+    <t>Sei bei einem Trinkspiel Cheerleader und feuere deine(n) Favorit:in an</t>
+  </si>
+  <si>
+    <t>Unterhalte dich mit einer Person, die ein gleiches Urlaubsziel hat, wie du</t>
+  </si>
+  <si>
+    <t>Bringe den Geburtstagskindern ein Zwischenwasser</t>
+  </si>
+  <si>
+    <t>Tausche mit einer Person deiner Wahl das Oberteil</t>
+  </si>
+  <si>
+    <t>Sprich einen Trinkspruch auf eins der Geburtstagskinder</t>
+  </si>
+  <si>
+    <t>Lass dir von jemandem ein Tattoo auf den Arm malen</t>
+  </si>
+  <si>
+    <t>Unterhalte dich mit einer Person, die den gleichen Sport macht wie du</t>
+  </si>
+  <si>
+    <t>Übe drei Tanzschritte ein und präsentiere sie den Geburtstagskindern</t>
+  </si>
+  <si>
+    <t>Versammle 5 Personen, die ein Instrument spielen können</t>
+  </si>
+  <si>
+    <t>Trinke einen Shot mit einer Person, die du hübsch findest</t>
+  </si>
+  <si>
+    <t>Singe den Geburtstagskindern ein Ständchen</t>
+  </si>
+  <si>
+    <t>Versammle 3 Personen, die schon mal jemand anderem die Fingernägel  geschnitten haben</t>
+  </si>
+  <si>
+    <t>Stoße mit jemandem an, der/die im gleichen Monat wie du Geburtstag hat</t>
+  </si>
+  <si>
+    <t>Spiele mit bei Flip Pong</t>
+  </si>
+  <si>
+    <t>Versammle 5 Personen, die zu viel bei Instagram rumhängen</t>
+  </si>
+  <si>
+    <t>Verteile Shots an 3 Personen, deren Outfit dir gefällt</t>
+  </si>
+  <si>
+    <t>Mache einen Purzelbaum</t>
+  </si>
+  <si>
+    <t>Unterhalte dich mit einer Person, die in Bitcoin/Krypto investiert</t>
+  </si>
+  <si>
+    <t>Trinke einen Sekt zusammen mit einer Person, die gerne Sekt trinkt</t>
+  </si>
+  <si>
+    <t>Dichte ein Elfchen über Mathis und trage es ihm vor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mache einer Person, die du bislang nicht kanntest, ein Kompliment </t>
+  </si>
+  <si>
+    <t>Stoße mit einer Person an, die keinen Alkohol trinkt</t>
+  </si>
+  <si>
+    <t>Dichte ein Elfchen über Leonie und trage es ihr vor</t>
+  </si>
+  <si>
+    <t>Erzähle jemandem von etwas, was dich stolz macht</t>
+  </si>
+  <si>
+    <t>Verteile Shots an 3 Personen, die die Geburtstsagskinder schon vor dem Studium kannten</t>
+  </si>
+  <si>
+    <t>Singe mit einer weiteren Person zusammen ein Kinderlied</t>
+  </si>
+  <si>
+    <t>Finde von mind. 5 Personen den zweiten Vornamen heraus</t>
+  </si>
+  <si>
+    <t>Wische den Trinkspieltisch sauber</t>
+  </si>
+  <si>
+    <t>Hüpfe auf einem Bein von der Küche bis ins Wohnzimmer</t>
+  </si>
+  <si>
+    <t>Unterhalte dich mit jemandem, der/die das gleiche Lieblingsfach in der Schule hatte</t>
+  </si>
+  <si>
+    <t>Bringe drei Menschen, die du nett findest, ein Zwischenwasser</t>
+  </si>
+  <si>
+    <t>Mache drei Liegestütze</t>
+  </si>
+  <si>
+    <t>Mach zwei Personen mit einer schönen Nase ein entsprechendes Kompliment</t>
+  </si>
+  <si>
+    <t>Frage die Person links von dir, was sie gern trinken würde, und bringe ihr dieses Getränk</t>
+  </si>
+  <si>
+    <t>Baue mit zwei weiteren Personen eine Pyramide</t>
+  </si>
+  <si>
+    <t>Mache zwei Personen mit einer schönen Stimme ein entsprechendes Kompliment</t>
+  </si>
+  <si>
+    <t>Bringe einer Person, die die gleiche Musik mag wie du, ein Getränk ihrer Wahl</t>
+  </si>
+  <si>
+    <t>Motiviere 3 weitere Personen mit dir 30 Hampelmänner zu machen</t>
+  </si>
+  <si>
+    <t>Mache einer Person, die deiner Meinung nach kluge Dinge sagt, ein entsprechendes Kompliment</t>
+  </si>
+  <si>
+    <t>Bringe einer Person, die aussieht, als könnte sie es gebrauchen, ein Zwischenwasser</t>
+  </si>
+  <si>
+    <t>Laufe einmal durch die Wohnung und sammle allen Müll ein</t>
+  </si>
+  <si>
+    <t>Erzähle einer Person, die du noch nicht kanntest, eine lustige Geschichte von dir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trink ein Getränk deiner Wahl </t>
+  </si>
+  <si>
+    <t>Mache ein Lied an, von dem du den Text  kannst, und singe aus ganzem Herzen mit</t>
+  </si>
+  <si>
+    <t>Versammle die 10 Personen, die deiner Meinung nach heute die größte Feierlaune haben</t>
+  </si>
+  <si>
+    <t>motiviere eine Person, die eine Jeans trägt, ihr Getränk zu exen</t>
+  </si>
+  <si>
+    <t>Tanze für mind. drei Lieder in Folge</t>
+  </si>
+  <si>
+    <t>Erzähle eine Anekdote über Mathis</t>
+  </si>
+  <si>
+    <t>Bringe jemandem, der/die gerade ein Trinkspiel spielt, ein Zwischenwasser</t>
+  </si>
+  <si>
+    <t>Fordere jemanden, den du vorher noch nicht kanntest, zum Tanzen auf</t>
+  </si>
+  <si>
+    <t>Erzähle eine Anekdote über Leonie</t>
+  </si>
+  <si>
+    <t>Überreiche einem der Geburtstagskinder ein Geschenk</t>
+  </si>
+  <si>
+    <t>Erzähle jemanden, den du noch nicht kennst, von deiner ersten Begegnung mit Leonie und/oder Mathis</t>
+  </si>
+  <si>
+    <t>Initiiere eine Polonaise</t>
+  </si>
+  <si>
+    <t>Unterhalte dich mit jemandem über deine Berufswünsche als Kind</t>
+  </si>
+  <si>
+    <t>Verteile Shots an drei Personen deiner Wahl</t>
+  </si>
+  <si>
+    <t>Spiele mit fünf anderen Personen Gruppen-Schnick Schnack Schnuck in zwei Teams</t>
+  </si>
+  <si>
+    <t>Frage drei Personen nach ihrem besten Lifehack</t>
+  </si>
+  <si>
+    <t>Motiviere jemanden einen Tornado zu trinken</t>
+  </si>
+  <si>
+    <t>Lass dir einen freundlichen Gruß auf den Bauch schreiben</t>
+  </si>
+  <si>
+    <t>Frage drei Personen, was ihr seltsamster Spleen ist</t>
+  </si>
+  <si>
+    <t>Sammle leere Glasflaschen ein und räume sie in die entsprechende Kiste</t>
+  </si>
+  <si>
+    <t>Fordere jemanden zum Armdrücken heraus</t>
+  </si>
+  <si>
+    <t>Versammle vier Personen, die lieber auf dem Land als in der Stadt leben wollen</t>
+  </si>
+  <si>
+    <t>Bringe einer Person, die eine lange Anreise hatte, ein Getränk</t>
+  </si>
+  <si>
+    <t>Lass dir die Augen verbinden und versuche auf fünf Personen eine vorgegebene Person nur durch Ertasten zu identifizieren</t>
+  </si>
+  <si>
+    <t>Erzähle in einer Runde von Leuten, was dich zuletzt zum Lachen gebracht hat</t>
+  </si>
+  <si>
+    <t>Bringe einer Person, die Mathis oder Leonie schon mal nackt gesehen hat, ein Getränk</t>
+  </si>
+  <si>
+    <t>Gib einer Person, die nicht dein:e Partner:in ist, einen Kuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spüle mind. 5 Becher damit sie wieder benutzt werden können </t>
+  </si>
+  <si>
+    <t>Umarme eine Person, die aussieht, als würde es ihr gut tun</t>
+  </si>
+  <si>
+    <t>Finde eine Person, die noch nie in den Alpen war</t>
+  </si>
+  <si>
+    <t>Male dir mit einer Person, die du vorher nicht kanntest, ein gemeinsames Tattoo auf den Arm</t>
+  </si>
+  <si>
+    <t>Mache eine Umfrage bei mind. 10 Leuten zum Thema: sollten Haustiere im Bett schlafen</t>
+  </si>
+  <si>
+    <t>Tausche mit jemandem die Hose/den Rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mache eine Umfrage bei mind. 10 Leuten zum Thema: morgens süß oder herzhaft frühstücken </t>
+  </si>
+  <si>
+    <t>Kümmere dich darum, dass Snacks nachgefüllt werden</t>
+  </si>
+  <si>
+    <t>Mache eine Umfrage bei mind. 10 Leuten zum Thema: Insekten essen ja oder nein</t>
+  </si>
+  <si>
+    <t>Füge drei Lieder, die du magst, in die Warteschlange ein</t>
+  </si>
+  <si>
+    <t>Mache eine Umfrage bei mind. 10 Leuten zum Thema: Chips oder Schokolade</t>
+  </si>
+  <si>
+    <t>Tanze ein Lied lang mit Augen zu, als ob dich niemand sehen würde</t>
+  </si>
+  <si>
+    <t>Mache eine Umfrage bei mind. 10 Leuten zum Thema: Fenster putzen oder Staub wischen</t>
+  </si>
+  <si>
+    <t>Spiele eine Runde Tittyball</t>
+  </si>
+  <si>
+    <t>Initiiere eine Runde des This-or-That (Bier-oder-Wein) Spiels</t>
+  </si>
+  <si>
+    <t>Erkläre einer Person deiner Wahl dein Lieblingsrezept</t>
+  </si>
+  <si>
+    <t>Spiele eine Runde Kartenküssen</t>
+  </si>
+  <si>
+    <t>Spiele mit einer Person deiner Wahl 2 Runden "wenn ich du wäre"</t>
+  </si>
+  <si>
+    <t>Versammle 5 Personen, die Bachelor/ Bachelorette gucken</t>
+  </si>
+  <si>
+    <t>Bereite jemandem ein Getränk zu, der/die in einem Start-up arbeitet</t>
+  </si>
+  <si>
+    <t>Räume mind. 5 leere Pfandflaschen in den entsprechenden Kasten</t>
+  </si>
+  <si>
+    <t>Bringe einer Person, die deiner Meinung nach viel Geld hat, ein Getränk</t>
+  </si>
+  <si>
+    <t>Überzeuge eine Person, die ein fröhliches Lachen hat, einen Shot mit dir zu trinken</t>
+  </si>
+  <si>
+    <t>Versammle 5 Personen, die nicht (mehr) in Münster leben</t>
+  </si>
+  <si>
+    <t>Trink aus und hol dir ein neues Getränk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoße mit einer Person an, die etwas studiert/arbeitet, was für dich selbst gar nichts wäre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinke ein Getränk auf ex mit einer Person, die etwas studiert/arbeitet, was du auch gern machen würdest </t>
+  </si>
+  <si>
+    <t>Dreh dich mit Augen zu im Kreis. Mit der Person, die du siehst, wenn du die Augen wieder aufmachst, trinke einen Shot</t>
+  </si>
+  <si>
+    <t>Bring einer Person mit coolen Socken ein neues Getränk</t>
+  </si>
+  <si>
+    <t>Stoße mit jemanden an, der/die aussieht als würde er/sie in Berlin wohnen</t>
+  </si>
+  <si>
+    <t>Versammle 5 Leute, die pink schöner finden als grün</t>
+  </si>
+  <si>
+    <t>Trinke einen Shot mit einer Person die vermutlich die gleiche Partei wählt wie du</t>
+  </si>
+  <si>
+    <t>Zwei Shots für dich und die Person, die du hier am allerliebsten magst</t>
+  </si>
+  <si>
+    <t>Mache eine Umfrage bei mind. 10 Personen: snooze oder aufstehen</t>
+  </si>
+  <si>
+    <t>Bringe einer Person ein Getränk, die bei 7vs Wild gewinnen könnte</t>
+  </si>
+  <si>
+    <t>Versammle 3 Leute, die lieber 5 min zu spät als 10 min zu früh kommen</t>
+  </si>
+  <si>
+    <t>Spiele 2aus3 schnick schnack schnuck gegen eine Person deiner Wahl, Verlierer:in trinkt einen Shot</t>
+  </si>
+  <si>
+    <t>Laufe für die nächsten 15 Minuten rückwärts</t>
+  </si>
+  <si>
+    <t>Versammle 3 Personen, deren Lieblingsfach in der Schule Mathe war</t>
+  </si>
+  <si>
+    <t>Sprudle neues Wasser mit allen SodaStream Flaschen</t>
+  </si>
+  <si>
+    <t>Umarme fünf Personen gleichzeitig</t>
+  </si>
+  <si>
+    <t>Versanmle 3 Personen, denen du zutrauen würdest sich für eine Klimaaktion irgendwo festzukleben</t>
+  </si>
+  <si>
+    <t>Lege neue Getränke kalt</t>
+  </si>
+  <si>
+    <t>Stelle pantomimisch etwas Peinliches nach, was dir mal passiert ist. Punkt, wenn jemand in 30sek richtig rät</t>
+  </si>
+  <si>
+    <t>Versammle 3 Personen, deren Unterwäsche (Ober- und Unteteil) die gleiche Farbe hat. Punkt, wenn du recht hast</t>
+  </si>
+  <si>
+    <t>Sammle mind. 15 Kronkorken ein und schmeiße sie in den Müll</t>
+  </si>
+  <si>
+    <t>Entwickle einen 30sekündigen Check/Handschlag mit einer Person, die du besonders cool findest</t>
+  </si>
+  <si>
+    <t>Versammle 3 Personen, die eher beim Dschungelcamp als beim Bachelor/ette mitmachen würden</t>
+  </si>
+  <si>
+    <t>Bringe jemandem ein Zwischenwasser, der/die bei einem Trinkspiel ordentlich einstecken musste</t>
+  </si>
+  <si>
+    <t>Schreibe eine Liste mit 10 tollen Eigenschaften von Mathis</t>
+  </si>
+  <si>
+    <t>Mache 10 Personen im Raum ein Kompliment, das du ernst meinst</t>
+  </si>
+  <si>
+    <t>Trinke anstelle einer Person, die gerade bei einem Trinkspiel trinken müsste</t>
+  </si>
+  <si>
+    <t>Schreibe eine Liste mit 10 tollen Eigenschaften von Leonie</t>
+  </si>
+  <si>
+    <t>Tanze Disco Fox mit einer Person deiner Wahl zu einem Lied deiner Wahl</t>
+  </si>
+  <si>
+    <t>Versammle 3 Personen, die heute vor der Party Pizza oder Pommes gegessen haben</t>
+  </si>
+  <si>
+    <t>Konzipiere mit mind. 5 Personen einen Flashmob und überrasche damit die Geburtstagskinder</t>
+  </si>
+  <si>
+    <t>Planke für 2 Minuten</t>
+  </si>
+  <si>
+    <t>Überzeuge eine Person, die vor 12 Uhr gehen will, länger zu bleiben</t>
+  </si>
+  <si>
+    <t>Steh 1min auf einem Bein ohne Festhalten</t>
+  </si>
+  <si>
+    <t>Versammle 3 Personen, die schonmal einen Kindergeburtstag mit dem Motto Piraten gefeiert haben</t>
+  </si>
+  <si>
+    <t>Organisiere ein Gruppenfoto mit mind. 30 Personen</t>
+  </si>
+  <si>
+    <t>Versammle 5 Personen, die dieses Jahr 30 werden oder geworden sind</t>
+  </si>
+  <si>
+    <t>Veranstalte mit 5 Personen zu einem Grimassenwettbewerb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +520,21 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,8 +560,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,201 +883,602 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBF8B78-180F-C244-BADB-E4202A9538C4}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="176" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="13" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="14" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="15" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="16" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="17" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="18" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="128" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="176" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
